--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/55_Malatya_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/55_Malatya_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3488E349-10FE-4B97-BEDF-D1420A469FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA745BE4-6CBF-48C0-B09C-0E1F1116538E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{147AB94E-89BE-4445-9E6B-36A21438D9D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C40C5EB7-B471-4FE0-AC92-B57861EF8E64}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{870B5CAD-B172-49C7-9A45-3EB90CEC4C7A}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{7519F5D8-36B7-46C4-878E-7AB84C0325B8}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{FE0B4793-0DEB-4ECD-890F-0FF233F65BD6}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{87B2E313-3344-4FB9-8D1A-32725D715891}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{8BB1B2DB-9C49-44AC-BD99-34D006D98991}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{DB752944-C083-40D3-A224-5EC98C905237}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{BE41A3B6-5FAC-4DAC-949C-82401F6BC95C}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{817FE91E-205D-4CE8-82ED-71AD1A381592}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6494C626-E513-4997-A90F-3B112EAC0B15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED307AA-CBF3-40AF-9678-040055861892}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2453,18 +2453,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8E438DA8-4E83-4C3B-B5D4-CB77FAAC3546}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BC42C83D-7DA2-420C-B14B-7DB1F86C986C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6531A0F4-5704-45B1-9297-56C83E117CFE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C17B1D09-7D4D-4C13-9B67-EE5187D65D07}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{ADDC64DE-2CC0-406D-82DB-857D963C68E0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{25D654F0-2530-4E79-8786-C00D48947842}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9F988959-F5B9-49BD-AD49-A81580819B8B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{47120822-7D67-45FB-83EC-12119AA1FF3E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6C5FCB04-B1A8-44A2-A0EB-661A55ADBA9D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1DFCF648-55DD-41B5-9D6C-EC7D507EB045}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9B9E7B12-B561-48C5-9D30-8DFA86932879}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EC48AC6B-7896-471E-A93D-8C5266F41C9D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{90AD1E16-AC47-4F60-A202-A88C4635FA15}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AD22C203-7370-44C4-8D9E-D631978115A8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AE437A60-B158-494F-9BCE-BCC5017AD283}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{90A4E6DB-27AE-4317-B0B7-9D61B7A8311A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FEEC9B29-30F4-43CA-AB58-F59A8E16D769}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3B16C4A3-21B9-4D61-AB6F-91BA8D997AC3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7E4E5257-DB41-425E-A56A-618B1AFF62A5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BFEB1DC6-30C7-4708-9BCA-5ED40113EF05}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{63C02632-ECBD-4262-A5E8-95DB91431AF1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EF916ED0-A566-4269-9953-A3010FF53BF4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CFE6EBBA-1A68-4E20-B9F0-D78D5EFDEA7B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F166D969-BE37-4571-8A0C-C808053BEAB0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2477,7 +2477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BA5705-F1A4-4747-B7F4-BF9F022B865D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5B8695-8E78-4F34-B02C-9D8CA31FEAA9}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3660,18 +3660,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A88809AF-507C-40A9-920D-DD41E519A450}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5AA2FBD9-B2D1-4CEB-B2C1-7C86B6C12177}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{395AB40C-9668-4CC5-9B05-A3D7A2EB0BC8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{437B9989-7343-4B78-A92F-D7840C3AAD05}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B36E8983-5C75-4871-A6F4-52CF30982DA0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{77BB3C07-33A9-40E6-9F09-95C93807E642}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{54A4DCDE-DE05-4F08-AC95-0B5D390631C4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BCB851A7-0BE9-44CA-8DF5-BD9B8CA29921}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{60DEAB14-EC8A-452F-B584-773246CE32F1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3B0C065A-9620-43A7-98D0-D7F9423F9E91}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3FE414F5-3034-42DD-8554-C077CDFBB93F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AA1041CB-0C8B-4F62-9400-EA2B591E7140}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F4924B88-C91A-4A15-8F8B-3CF921FD9A40}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6D9742DE-C46F-4198-86D8-6A5518F32FDC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EC5BCFA7-F345-419E-817C-9B6E96C6E35B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1506D658-A9A8-4601-9E81-88E17E8CF7E2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3A8DFFDA-B098-4FD9-BE7C-968F06420AE3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A1D6D0FD-AB4E-4F30-9FB7-B752D392C261}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5C968EEB-FEFA-419C-B32E-2EC87D3B95BA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E2A688F6-DDC2-4BE3-83DC-CD90D89C38FB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8E8F8E58-116F-43EF-8AC6-9231AF239BE7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{90DC0A49-E607-4DFF-BF27-666313A9A85A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3366D09A-F8C4-45A1-B18A-C22E3764D3BE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E7AB9920-69D0-42CB-8A69-A0D141F6E9F0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3684,7 +3684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FF9908-EFD4-4770-9643-F614B865A678}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D450950F-B7FC-45F8-8DF8-C627688A41C0}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4863,18 +4863,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A473F7FD-FE39-47C6-AFC2-20C5514A6574}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A6195ABB-3686-4E38-BB06-899192EBD065}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DCB1E906-5953-4BAA-A32B-461CC06EE543}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CE8D2411-C04A-479B-A46F-BD2C32FA99F4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{91FF8070-461F-4E14-8384-E1B7CDB013CC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{55524F05-7D50-4BDC-A1E0-8A14981A46E9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2A927301-497D-4BB4-A03D-8C5DCC9DC9E8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8FFBFF81-43BD-4C27-82D6-85A3527CDC39}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B26F81D8-3D3B-4404-91AE-E062D7C4EBF3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D9A18F8B-DEA3-462B-8B23-15BA54440323}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{643A61E5-187A-468F-9DEB-5E56D92CCE4B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7EF598DC-8A15-4671-85D0-EB6695112C6B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{532D4C3C-534F-40C4-841B-FEE770238005}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E5B4F26B-0870-4DA4-9896-6307908A97F8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{38D59A00-7EAE-4A2D-A1C4-130D6EBC01A6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{53C7B174-7406-4073-BBFE-3ABEDE5F4825}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{15FE4EFB-E9A9-4B3E-A1DE-EBDE69BF97D2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F5CE9DA0-9C76-4F95-B177-094CC7AF0D68}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6AE305C9-DEE1-408A-A206-87769EFC90D8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FBB49063-DF86-4DF9-B8EA-97166FF95883}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9A4C649C-E667-488A-BA44-B20AE45C9897}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D7AB4302-2380-4FF9-AA9A-00E18D13C653}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E153594C-B22D-4F29-A0E3-7C926AE94765}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D294E3D8-7007-4982-B971-39C2FD2B4BBF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4887,7 +4887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8323FE-F219-4813-99E5-A53361B7714C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC5192A-1D0D-40AE-A3B0-E1C07048B1BE}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6060,18 +6060,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0FBF5063-4A21-4EFC-B3E4-2EF0EC2A3FA8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1C631B3F-2905-4834-8FE2-3C9D025E280B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6B5A4BB5-D822-49B8-A11C-5EE450F77544}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{352B29A3-F6BE-4470-9F91-D377F4487D5C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AD0C8803-63CD-4BB5-9BB1-B858485CFF82}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8C0223D9-96A2-452C-BA1A-5D08E5587C95}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BBE9D389-F0A9-49EF-9DB8-F229AC9E73FC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0163708E-38FC-4D15-84E2-B493E466126C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3DA13588-11BF-4E93-AF8F-9B7736D242E1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{122679AC-DE42-422F-B8A8-894238EF1B24}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{55FDD2F5-DED4-48E5-BD26-D1E14E3B5F3A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CB962BCF-54D8-49B9-B73A-FCBEAA10F45A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EEA1DE58-0BBD-422E-8678-3406DE5B1899}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{45E8D5F7-36A0-4650-B13C-A49D9FA40772}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2592B7F1-C532-4D31-A401-3215914A7CA5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{639CD612-62EE-47A1-9D94-86536FD42F1C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{021FB486-AE86-4613-B0D7-A8F4BE1B7811}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6991FF08-B1D1-4F29-BB3D-090996CDFE7C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5D5326A6-505B-4152-87D0-210A2F7107F9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7D993071-C46A-457A-96FB-68AB588E379E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{21A319BF-E2B2-4612-A72A-6FF0F1A9DD28}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D29B11BD-D57F-4155-B4D6-F59D15B2B837}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0C990B65-1263-4712-BBA3-538F4C436196}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{47584A3A-3D78-4B1E-860A-B07216D713AA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6084,7 +6084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E06E1A-CD8A-4775-A806-B9B5E5BCD547}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC433243-E3AA-4CC3-9D27-B33DC87E7D98}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7293,18 +7293,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FE28FE7F-3F57-46DE-B2FE-D577EDCA8232}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1F0C6FF0-B651-4F35-A991-A575BE17169F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1611BF9A-F0AE-417E-922A-A9E2877202C5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7052EA1E-9E97-496E-A6D7-483F836CA489}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6338E5A7-1F4A-4798-9896-BC60FF369843}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3A8EBA91-91D8-43A5-9029-8B1056C9F72D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DCA66504-F458-434B-8730-84D59DAC4483}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4D7DA5FA-BA8A-4491-A3F4-D7B58963A384}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{24A1D05E-71A2-4E14-AACC-B4969BDE01CE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EB7299E7-DDBF-4FB7-81C5-504A28AFF60D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1A44B70E-0137-455B-89C2-AA502B7FC11D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C632E812-FBA0-4880-82EF-CDC35C9ACB57}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A3EF86C1-4C6B-4822-8E52-69B8FA9EA46F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B7A3D0BC-C4CC-4F63-A7E0-63331643300E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6389499A-2689-4BE5-B77E-C9EBF791B4AF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{38CC1A1C-05A3-4CA1-91A6-7DE7ED21C875}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0590C40A-FFCB-4E39-9B3A-7A30E47CCE23}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9276A281-D56C-41ED-9F47-551F6A820AFC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{025F6628-20D4-4600-B79A-DDA4DEC16B23}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0DC81851-F360-4AFF-9823-4D46F92E59AB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1A6998BD-6780-4479-8161-6868D6834A1C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{21FAA474-9BC5-4A9F-95DB-1432980CA1BD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D3647A8F-6384-4916-897A-7EC341AF6148}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FC9DA4B5-D25A-400F-8C52-DAFEC69E5B09}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7317,7 +7317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25906C6-4F9B-4D57-AB73-6DBB54578382}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EFC275-8B3C-4987-8BED-60E5AB9F5F3D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8530,18 +8530,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C733079B-0157-4F73-9BA4-5B23E217E95C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3164BC09-E5EA-4B93-9127-23E35D068C6A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EEE8FC97-750D-49AC-B70B-A04B895F5E62}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{432FA97F-70E8-49AD-8BBC-74BB5EB571CB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6D37FDF8-B780-4277-B9DB-90C35FCEAF8C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{71A6C4E4-A1D9-465C-9987-5DCD31A8E052}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{294E02AB-88FB-4493-B493-D05BC9B95934}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EDFBF7E2-8DC6-466E-ACDF-71FCA4AE8955}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F0D28B64-B3FF-4362-876A-953B0F34EEB2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1403F9C9-10D9-4FF8-9C27-18DD768C0BD0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6F0C60D2-B155-4B9F-8BD0-B56B857DCC42}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{303A2D33-94EE-4F12-85B7-CA3480E44625}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{514846FD-B506-4032-ADF1-0CAFB5721B7A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3596D942-9D21-405C-98BF-A5F553F7DE2E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{040729C0-9EAC-4BA5-8009-D3957A5273D3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{395346B2-A236-4B1D-B7EF-AA4AA97F1598}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A307231A-F675-4C15-A2B8-8678925269C8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{23A9E232-80DD-4343-8519-4CD2E1DB1EE0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{97953BBD-2B9A-4A64-8E0D-295FC6D6609F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E871E5DD-C29B-47EB-BF7D-F5E35B633D7B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F1B0CEA0-FA7A-448F-8ADD-4DBCE1898259}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DD32B8FC-CD2B-44F9-9543-A2105EEFC6C3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DBBD5ACF-C35F-4085-9BBA-5048D5A92B4B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1A885089-D4BF-4E00-A6D2-30DEBAA98CFE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8554,7 +8554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F06C57B-C796-4CCB-8A73-E2108D08E433}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5655F888-E0A3-443F-BD05-77401C24D4BA}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9759,18 +9759,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CBBB112E-8DBD-4825-9689-155D2E1B8DEC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{066E5FF4-2A4C-449A-83C5-3451243AB0F6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{ED5B48DC-C437-44E2-B635-CD0AF2D5FEB8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{801374E3-679D-4BFD-964D-D7BE28F12D66}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8A288451-B98E-47EB-AE8E-815E83D4C94C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6A26FDB4-24CD-4FA8-8B9B-F03B6EC6CEBD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{55F07204-A54A-412F-B156-AF3C76B441C4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F5147C2E-A64D-41A2-A31C-AF19DBD59655}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{16777157-D381-4141-814B-FB8CE0EFE675}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F260A279-96C6-4261-A801-2A49F507E281}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7671ABB3-B7AD-4743-9B72-4F99ECCE260C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3D1E1599-0AF4-413D-A590-5364BC11848D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3378A2C3-C9DA-461F-88B8-CFB9E80D181D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{25C50C36-E3DC-404C-BA34-7C05D6DE17C0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9C931FBD-7340-45BA-9B30-6D2D551A2927}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{EC23E9FC-8407-4114-B767-7F9A3B8E832A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AEDB827F-D349-44F3-9B49-D8F1787B729E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{58FDEA53-B255-4D86-B30A-870F31A71A3B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4DE42AD4-44A3-4363-8661-2832383417A2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{878DF468-FBEA-452D-96CA-247A315BF803}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{35402893-7C7E-4AB4-8D76-168A740BC1D3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7D0372AB-F66D-49D6-AAE8-34550F0464D2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D2D329AB-81C2-41A3-8D6C-F527D4370C73}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{55F299B1-8ECA-4E1A-9AE0-9D8708C7BB5E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9783,7 +9783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7A01E4-161E-49B4-9EB5-AF83DAF567FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C647D1-77D6-42C3-B16E-8001B93D5CCC}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10986,18 +10986,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9B26CFB8-059D-406C-8B52-0CF85B241765}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{91138637-86EC-4B34-8CBE-7EE15FD4127C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{53D8E739-D0BD-4AFD-9FBE-777D1F003582}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{84585982-0320-46D3-9155-CD74F09A5961}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E9F1A276-B23D-4EE1-AB67-46C470758588}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5740F557-EBFF-4C68-BF26-D92F9953BE38}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{411BA8DD-CF5F-424E-B2A9-D933C6E154EA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5740F5B0-71FE-4F9D-B528-4E11FE200102}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9548E89B-DEB7-4FA6-AB4F-522F0F0B6BA2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{76E77178-B4D5-4BA8-BC39-498C44F1E4CF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{16EFCC9C-354C-490F-9F20-17859548BE33}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2DA88AF9-6B66-4F4C-8AB0-2C788477DBDD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{37D21E23-9279-4958-8F08-56F0E5137B4F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FA9937DE-79DF-4B6C-ADA8-9206F420F81E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A96050DD-235A-4260-B1E3-9D3E9F2A5323}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9D8B0B00-1831-43A5-B809-592B97A57E1F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D50C4482-A5D0-4CFE-8E25-E39486B44434}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EC62029D-D8E0-46D8-A009-C7E26E31B895}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{82A43FF7-DC7D-4E65-81FD-9D4B7F9D861E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{71CAA246-B7B2-429F-A4D7-D9553DC6AFC0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B675A62A-586D-41C2-88B2-8D20A6F047D8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8AC81A83-73E9-4F52-867A-76FC270FB6D7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{71C51A97-B610-429D-827F-5E15F237AC62}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{839160B5-1C2E-4EAC-9CDF-065C8BC78AE7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11010,7 +11010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976F1A45-5C91-48F4-B73C-9A74B802D275}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6E3F2A-C07F-48B5-AD40-22106DB94A35}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12209,18 +12209,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B6F984EE-FDBF-475E-8C92-79E6B12DB386}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{383A9AA3-3863-4F38-99B3-3EBD1B6B6374}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{365E735D-387A-41F5-91D5-07BD5B2D9981}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5A428B79-2554-445D-890F-E62B2D682329}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8D2ABBDC-9F8E-4B20-A776-4B22A2A495F6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2ECDFBF3-BAFB-40FF-AB0C-B90FA98710D2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A442733E-9D87-4F86-83D8-D7A3F4BADEB8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AA79E58E-C73C-434E-9423-271384BCC39F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0217177A-40A5-4CF3-A3A9-1E04A686D515}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2E5B7748-839C-4BB4-B03D-94AAF39478FA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D875CFFD-492B-4607-9A4E-9BFFBD1B8E06}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{038F07B5-6274-42FB-AEC8-14F491288E02}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{65FB5366-7DF9-4A25-8CA9-5394D20A63F2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4A30A5D7-2E1B-4180-84D3-0E1F1E6141D2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0BCF9600-EAEC-40FF-BD8A-33BE451F9D5F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AF5ECA91-248E-4ED3-A5C6-1A4D86D01159}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6A0B6D5F-59C4-4745-B81C-FF3AF9766743}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A0383650-5D47-4526-BB7D-A2458389C1F4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7B20C8CB-93D1-43DD-8F84-831EED217476}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B21534A6-FC03-4F8B-AE1A-86BA1965DB23}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{960A2D61-02AB-4A7C-8DDB-035D759A6E67}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A9848C28-6D62-4A5F-BEA6-2A33A26E41DB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8C9C1EE2-DFEB-409C-BA40-7B5BB52CB2A0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BEFB7F49-83BD-4BA3-A49D-D6EA3E380EF4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12233,7 +12233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAF8428-5756-491C-BC04-4D30F9883A4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD214F2-1212-4B41-9980-1FC3962BB2C6}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13432,18 +13432,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6F608D98-11C9-4410-AA01-AF37A81B4B7E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{976C0465-1E76-4201-9EC7-BA5FE1821D53}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{74533C54-B094-4BF9-9BFA-213C439E03EF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{28CEBB54-F0C6-4514-94AF-AEAE05802B8C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0FCF09AE-6BE8-4FCC-AF58-9C2B9CDEF636}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5CF144FF-3D74-466D-AB48-FC719D066AEB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6092D5D9-CBB7-432D-BE32-2505ACAB999E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F3D97164-772D-498F-A154-B4A9846525FA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{38029251-7E39-490E-B42B-CF9759EA12A1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{93D27ABA-D393-4428-BDBC-3E9FD11910D2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4496DA0D-9547-474D-8F5F-0661F899EB3A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1E382225-83C2-4838-A7BD-062C63488C0B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0ED21B31-7680-4461-844E-F720F313CBA8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{51EF3546-0D17-4C5C-8BC8-282FF092D949}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{11B1B420-3333-41CE-92C8-C73499FBAD01}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5E0593E6-8550-4971-A444-186EDF4B4B49}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{633B1493-10BE-4951-9C92-3C02EFF2B70D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9435298D-D9BB-4CCD-96E2-836391F6F20E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C34DB995-8AD4-4C8D-875C-335160C4F358}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{80828748-2F53-4728-ADD8-CA696752B5F4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EDB36E77-F9E3-46B4-8921-7892545F1D1D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{044F5F4C-AA5A-445D-991B-A479DFDAC619}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{76496EDC-008D-4264-A75A-D1FF6A780F64}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5E2A4C1B-F202-4DE2-B7B8-A9BECFF78CD1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13456,7 +13456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAA8275-8DE1-41D8-9CB0-783CD4A1D3B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9936101-6290-4A63-A1A1-75717EE12395}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14651,18 +14651,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8AB597DC-D035-4C1C-8E25-E9044A1A1BC6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6999F0EA-B39B-44ED-8AAD-100911EEC7CA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1A598C19-111D-42F3-B79E-AA31F05B7DE8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{74A084C5-0501-4812-9D7C-149D3BBBE7A0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B4CAC634-3D24-45EB-8368-FD3D0CDDFDC8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D518D6ED-08CB-4A5D-A88F-99975B33C43D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1F14BE1C-9976-4C49-9DEC-62B243420A00}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6D3879AA-C22D-43C1-A7E1-39926817F806}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6362657C-8A4A-49A1-BFFD-D29CAAA5D683}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E1BE4660-AE4D-40BC-803C-2B7A30DF5BC2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4B11770E-2AB1-4690-B252-E08330553285}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E78909F7-7B3D-4249-BAC9-03C17B06AF48}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3FCCE499-CEBE-4B1C-9CB6-77BA1D962E07}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DF16CC43-4D93-46E7-A7C4-26BFA43F5FD8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3585D10D-852C-4855-A142-0A25073B0CD6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{90A2AD12-45A6-46AB-9CC2-2FDB35AB4C06}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{49D101C4-D638-4AC4-8F95-1CEAA6BD6F86}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1F79DABC-8C2E-42E4-9076-D58198771CA3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{708BE356-BC3F-4E8F-82A7-045A31674C06}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3A7D07B2-7B1B-4E0C-97A2-23B36C122CE9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E52FBC9B-6139-4142-8FD7-1A13F268338D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{94C64140-FFB3-4524-A4FB-E4DB079D3FC7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FCB973BE-4565-4160-9BFA-52FD23E8D602}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5AA3A8BB-FBCD-45B1-B806-0860CED592F2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14675,7 +14675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4421992D-49EB-4151-84EB-CF77FBE2719F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B48C5C-8AC6-4BF5-9167-76DCC62F6BCC}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15870,18 +15870,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FBC42C77-5E3C-41B5-900E-A7D768A01A06}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{95D19F64-C0E3-4EEB-985C-7A7D33D98793}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3F659957-77E7-4348-9732-51E8B2AB62BD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{626A999D-31D0-467E-BD54-E743966A0040}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{105ACA9C-8CB0-4A0B-B4DB-2255B37ED3E8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{40325F3F-EB2F-4669-B29F-E6647A3061F7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CB231397-2E61-4E00-A1FA-88F82DEE4941}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7F77EEBA-87AC-43B3-8620-E28C83E1C623}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E09B9FE8-A02A-46AC-A28D-889CEA2709DF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B7D19893-6D2B-4161-8AA0-84E312591F68}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C91E82AE-9B63-4261-B241-238528776DFC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0D685A51-53CC-4BFB-8D0D-DF487621F8D9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5C2D1DBF-98DB-4586-A02B-D034DC0BCE47}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{85166DCF-EFAA-4689-A950-6FF2CD2363EE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9FDD3880-BC6A-49ED-B31C-88BB8BEBF463}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DCACD9CC-0D2C-4893-82D7-761B31C525CC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AF28599F-6AFA-48B1-B4C0-7F42387B72F8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3DD6C6B1-9F58-4C85-8001-D579692B0489}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7944A504-D321-46A2-9AA6-20E03134AA16}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{84A08144-4C00-43B5-9535-834868DC352C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D4D6561D-1BE8-497C-8A2A-78BF818C40E6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{766052C5-4096-4F52-8233-A3E71E106F28}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{94B8EB75-3252-4CF1-B38A-FCFFE2837152}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EF2CF933-DFB2-45F4-92FF-26FE824E044B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
